--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-19.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H598"/>
+  <dimension ref="A1:H577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17435,10 +17435,8 @@
       <c r="E513" t="inlineStr"/>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr"/>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -17461,10 +17459,8 @@
       <c r="E514" t="inlineStr"/>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr"/>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -17495,10 +17491,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H515" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="516">
@@ -17525,10 +17519,8 @@
       </c>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr"/>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -17559,10 +17551,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -17593,10 +17583,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -17627,10 +17615,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="520">
@@ -17665,10 +17651,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H520" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -17699,10 +17683,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H521" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="522">
@@ -17733,10 +17715,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H522" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="523">
@@ -17767,10 +17747,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H523" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="524">
@@ -17801,10 +17779,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H524" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="525">
@@ -17839,10 +17815,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H525" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="526">
@@ -17873,10 +17847,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -17907,10 +17879,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="528">
@@ -17941,10 +17911,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="529">
@@ -17975,10 +17943,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="530">
@@ -18005,10 +17971,8 @@
       </c>
       <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr"/>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -18035,10 +17999,8 @@
       </c>
       <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr"/>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="532">
@@ -18065,10 +18027,8 @@
       </c>
       <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr"/>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -18095,10 +18055,8 @@
       </c>
       <c r="F533" t="inlineStr"/>
       <c r="G533" t="inlineStr"/>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="534">
@@ -18125,10 +18083,8 @@
       </c>
       <c r="F534" t="inlineStr"/>
       <c r="G534" t="inlineStr"/>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="535">
@@ -18159,10 +18115,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="536">
@@ -18193,10 +18147,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -18227,10 +18179,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -18265,10 +18215,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="539">
@@ -18303,10 +18251,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -18333,10 +18279,8 @@
       </c>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr"/>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -18363,10 +18307,8 @@
       </c>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr"/>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -18393,10 +18335,8 @@
       </c>
       <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr"/>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -18419,10 +18359,8 @@
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr"/>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -18449,10 +18387,8 @@
       </c>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr"/>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -18475,10 +18411,8 @@
       <c r="E545" t="inlineStr"/>
       <c r="F545" t="inlineStr"/>
       <c r="G545" t="inlineStr"/>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -18509,10 +18443,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -18535,10 +18467,8 @@
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr"/>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -18561,10 +18491,8 @@
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr"/>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -18595,10 +18523,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -18629,10 +18555,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -18659,10 +18583,8 @@
       </c>
       <c r="F551" t="inlineStr"/>
       <c r="G551" t="inlineStr"/>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -18693,10 +18615,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H552" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="553">
@@ -18727,10 +18647,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -18765,10 +18683,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H554" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -18803,10 +18719,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H555" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -18841,10 +18755,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H556" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -18879,10 +18791,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H557" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="558">
@@ -18917,10 +18827,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H558" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="559">
@@ -18951,10 +18859,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="560">
@@ -18985,10 +18891,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="561">
@@ -19011,120 +18915,142 @@
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr"/>
-      <c r="C562" t="inlineStr"/>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Capacity UtilizationDEC</t>
+        </is>
+      </c>
       <c r="D562" t="inlineStr"/>
-      <c r="E562" t="inlineStr"/>
-      <c r="F562" t="inlineStr"/>
-      <c r="G562" t="inlineStr"/>
-      <c r="H562" t="inlineStr"/>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F563" t="inlineStr"/>
       <c r="G563" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D564" t="inlineStr"/>
       <c r="E564" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D565" t="inlineStr"/>
       <c r="E565" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H565" t="inlineStr">
@@ -19136,31 +19062,23 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D566" t="inlineStr"/>
-      <c r="E566" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E566" t="inlineStr"/>
       <c r="F566" t="inlineStr"/>
-      <c r="G566" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G566" t="inlineStr"/>
       <c r="H566" t="inlineStr">
         <is>
           <t>3</t>
@@ -19170,31 +19088,23 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D567" t="inlineStr"/>
-      <c r="E567" t="inlineStr">
-        <is>
-          <t>€32B</t>
-        </is>
-      </c>
+      <c r="E567" t="inlineStr"/>
       <c r="F567" t="inlineStr"/>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>€33.0B</t>
-        </is>
-      </c>
+      <c r="G567" t="inlineStr"/>
       <c r="H567" t="inlineStr">
         <is>
           <t>3</t>
@@ -19204,137 +19114,113 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D568" t="inlineStr"/>
       <c r="E568" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F568" t="inlineStr"/>
       <c r="G568" t="inlineStr"/>
       <c r="H568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D569" t="inlineStr"/>
       <c r="E569" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$92.1B</t>
         </is>
       </c>
       <c r="F569" t="inlineStr"/>
-      <c r="G569" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G569" t="inlineStr"/>
       <c r="H569" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D570" t="inlineStr"/>
       <c r="E570" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F570" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G570" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr"/>
+      <c r="G570" t="inlineStr"/>
       <c r="H570" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A571" t="inlineStr"/>
       <c r="B571" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D571" t="inlineStr"/>
       <c r="E571" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F571" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G571" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr"/>
+      <c r="G571" t="inlineStr"/>
       <c r="H571" t="inlineStr">
         <is>
           <t>3</t>
@@ -19344,187 +19230,155 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr"/>
+      <c r="C572" t="inlineStr"/>
       <c r="D572" t="inlineStr"/>
-      <c r="E572" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F572" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G572" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E572" t="inlineStr"/>
+      <c r="F572" t="inlineStr"/>
+      <c r="G572" t="inlineStr"/>
+      <c r="H572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D573" t="inlineStr"/>
       <c r="E573" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F573" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr"/>
       <c r="G573" t="inlineStr">
         <is>
-          <t>127.08</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D574" t="inlineStr"/>
       <c r="E574" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F574" t="inlineStr"/>
       <c r="G574" t="inlineStr">
         <is>
-          <t>€2900.0M</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D575" t="inlineStr"/>
       <c r="E575" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr"/>
       <c r="H575" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D576" t="inlineStr"/>
       <c r="E576" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F576" t="inlineStr"/>
       <c r="G576" t="inlineStr"/>
       <c r="H576" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
+      <c r="A577" t="inlineStr"/>
       <c r="B577" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D577" t="inlineStr"/>
@@ -19533,656 +19387,6 @@
       <c r="G577" t="inlineStr"/>
       <c r="H577" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr">
-        <is>
-          <t>Foreign Securities PurchasesNOV</t>
-        </is>
-      </c>
-      <c r="D578" t="inlineStr"/>
-      <c r="E578" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F578" t="inlineStr"/>
-      <c r="G578" t="inlineStr"/>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D579" t="inlineStr"/>
-      <c r="E579" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr"/>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D580" t="inlineStr"/>
-      <c r="E580" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>1.48M</t>
-        </is>
-      </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D581" t="inlineStr"/>
-      <c r="E581" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F581" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D582" t="inlineStr"/>
-      <c r="E582" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D583" t="inlineStr"/>
-      <c r="E583" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D584" t="inlineStr"/>
-      <c r="E584" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F584" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C585" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D585" t="inlineStr"/>
-      <c r="E585" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F585" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="G585" t="inlineStr">
-        <is>
-          <t>76.9%</t>
-        </is>
-      </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C586" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D586" t="inlineStr"/>
-      <c r="E586" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D587" t="inlineStr"/>
-      <c r="E587" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F587" t="inlineStr"/>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D588" t="inlineStr"/>
-      <c r="E588" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F588" t="inlineStr"/>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D589" t="inlineStr"/>
-      <c r="E589" t="inlineStr"/>
-      <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr"/>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D590" t="inlineStr"/>
-      <c r="E590" t="inlineStr"/>
-      <c r="F590" t="inlineStr"/>
-      <c r="G590" t="inlineStr"/>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D591" t="inlineStr"/>
-      <c r="E591" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F591" t="inlineStr"/>
-      <c r="G591" t="inlineStr"/>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D592" t="inlineStr"/>
-      <c r="E592" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F592" t="inlineStr"/>
-      <c r="G592" t="inlineStr"/>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D593" t="inlineStr"/>
-      <c r="E593" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F593" t="inlineStr"/>
-      <c r="G593" t="inlineStr"/>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr"/>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D594" t="inlineStr"/>
-      <c r="E594" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F594" t="inlineStr"/>
-      <c r="G594" t="inlineStr"/>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr"/>
-      <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr"/>
-      <c r="E595" t="inlineStr"/>
-      <c r="F595" t="inlineStr"/>
-      <c r="G595" t="inlineStr"/>
-      <c r="H595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C596" t="inlineStr">
-        <is>
-          <t>Machinery Orders MoMNOV</t>
-        </is>
-      </c>
-      <c r="D596" t="inlineStr"/>
-      <c r="E596" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F596" t="inlineStr"/>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C597" t="inlineStr">
-        <is>
-          <t>Machinery Orders YoYNOV</t>
-        </is>
-      </c>
-      <c r="D597" t="inlineStr"/>
-      <c r="E597" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr"/>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C598" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D598" t="inlineStr"/>
-      <c r="E598" t="inlineStr"/>
-      <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr"/>
-      <c r="H598" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>
